--- a/src/test/java/TestData/B2CData.xlsx
+++ b/src/test/java/TestData/B2CData.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20730" windowHeight="8310"/>
+    <workbookView windowWidth="20730" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="createSingleCreditData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="createBulkCreditData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>aetman</t>
   </si>
@@ -59,19 +59,7 @@
     <t>jpb.admin2@maildrop.cc</t>
   </si>
   <si>
-    <t>testdiscounts+new@maildrop.cc</t>
-  </si>
-  <si>
-    <t>Test123456</t>
-  </si>
-  <si>
-    <t>estela.customer1.staging.ci@jumia.com</t>
-  </si>
-  <si>
-    <t>user.no.emoney@maildrop.cc</t>
-  </si>
-  <si>
-    <t>Test1234!</t>
+    <t>Automation Bulk Credit</t>
   </si>
 </sst>
 </file>
@@ -79,10 +67,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,16 +97,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,67 +119,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,32 +189,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,187 +234,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,17 +428,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,15 +463,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,9 +484,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,28 +502,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,142 +530,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,8 +1006,8 @@
   <sheetPr/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
@@ -1098,46 +1086,70 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="10.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="33.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="21.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="2.44444444444444" customWidth="1"/>
+    <col min="4" max="4" width="22.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="16.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="33.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="20.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="19.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="21.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="21.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="estela.customer1.staging.ci@jumia.com"/>
-    <hyperlink ref="D1" r:id="rId2" display="user.no.emoney@maildrop.cc"/>
-    <hyperlink ref="F1" r:id="rId3" display="jpb.admin1@maildrop.cc"/>
+    <hyperlink ref="E1" r:id="rId1" display="Fawryfawry@2022" tooltip="mailto:Fawryfawry@2022"/>
+    <hyperlink ref="F1" r:id="rId2" display="estela.merchant1.staging.ci@jumia.com" tooltip="mailto:estela.merchant1.staging.ci@jumia.com"/>
+    <hyperlink ref="J1" r:id="rId3" display="jpb.admin1@maildrop.cc"/>
+    <hyperlink ref="L1" r:id="rId4" display="jpb.admin2@maildrop.cc" tooltip="mailto:jpb.admin2@maildrop.cc"/>
+    <hyperlink ref="D1" r:id="rId5" display="ahmed.etman@jumia.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
